--- a/DataBase/Datas/__enums__.xlsx
+++ b/DataBase/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C24A08-B816-4640-8597-E9A915ADB287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20008F-CF6D-47D4-84CC-EC21D757D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>

--- a/DataBase/Datas/__enums__.xlsx
+++ b/DataBase/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20008F-CF6D-47D4-84CC-EC21D757D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999DCAE-2462-431C-A571-6F610143E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -101,6 +101,34 @@
   </si>
   <si>
     <t>alias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILL_ENEMY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENHANCE_QUIPMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_UP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quests.EQuestType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +641,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,15 +823,27 @@
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
@@ -815,9 +855,15 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
@@ -829,9 +875,15 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>

--- a/DataBase/Datas/__enums__.xlsx
+++ b/DataBase/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999DCAE-2462-431C-A571-6F610143E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A042DD-CC23-4BB4-81C1-F84517192BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Quests.EQuestType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs.ECostType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +653,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,15 +901,25 @@
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
@@ -909,9 +931,13 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>

--- a/DataBase/Datas/__enums__.xlsx
+++ b/DataBase/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A042DD-CC23-4BB4-81C1-F84517192BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA798D5-C8D6-47A1-948B-1D7FBB88DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DataBase/Datas/__enums__.xlsx
+++ b/DataBase/Datas/__enums__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA798D5-C8D6-47A1-948B-1D7FBB88DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ACA89A-5013-4A58-875F-75D275DA6E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -141,6 +141,30 @@
   </si>
   <si>
     <t>buffs.ECostType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendQuality.Equality</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -650,23 +674,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -941,6 +968,172 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
+        <v>2</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
+        <v>4</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataBase/Datas/__enums__.xlsx
+++ b/DataBase/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1C5BF7-6A35-4927-8E61-4AE908207752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9E217-616B-4244-8DE2-CF1C848AAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -230,6 +230,22 @@
   </si>
   <si>
     <t>飞升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE_EQUIPMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRIEND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -741,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1321,9 +1337,15 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="9">
+        <v>9</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
@@ -1335,9 +1357,15 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="11">
+        <v>10</v>
+      </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
